--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Roguelike/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/New/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB897DD6-E2C7-FD4C-A87A-97C8D6327AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B24704-2F7B-DB48-8B8F-575F64340C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,15 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>string</t>
@@ -121,9 +118,6 @@
     </r>
   </si>
   <si>
-    <t>管理端口</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
   </si>
   <si>
     <t>InnerBindIP</t>
-  </si>
-  <si>
-    <t>ManagementPort</t>
   </si>
   <si>
     <t>游戏服务器</t>
@@ -579,10 +570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -591,10 +582,10 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,36 +593,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -645,67 +632,57 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="16">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -713,19 +690,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7">
-        <v>20000</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/New/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B24704-2F7B-DB48-8B8F-575F64340C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E94D-F2D6-C543-9882-02121D762DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineConfig" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -137,11 +137,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>uint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +576,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -593,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -690,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>

--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E94D-F2D6-C543-9882-02121D762DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CC606-8F90-B943-B568-59EB2F5FF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -141,10 +141,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
+    <t>192.168.31.203</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +573,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -693,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>

--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CC606-8F90-B943-B568-59EB2F5FF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0C31F7-D1CF-5744-82F4-318C79049089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.31.203</t>
+    <t>127.0.0.1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0C31F7-D1CF-5744-82F4-318C79049089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E94D-F2D6-C543-9882-02121D762DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>uint</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -573,7 +576,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -690,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>

--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E94D-F2D6-C543-9882-02121D762DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0C31F7-D1CF-5744-82F4-318C79049089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -139,9 +139,6 @@
   <si>
     <t>uint</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -576,7 +573,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -693,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>

--- a/examples/Config/Excel/Server/MachineConfig.xlsx
+++ b/examples/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0C31F7-D1CF-5744-82F4-318C79049089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27DFADF-8ACC-E940-A292-5597EA89F16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
